--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meena\OneDrive\Desktop\final code\AI-Based-Automated-Content-Marketing-Optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC7BCF-1F0B-4071-AF46-DC5AC023F6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9441F832-9128-4D85-8498-AAC603EBD8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="191">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>Foundation and prerequistes for doing the project</t>
-  </si>
-  <si>
-    <t>G Meenakshi</t>
   </si>
   <si>
     <t>Learnt python basics for the Project</t>
@@ -1320,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1429,30 +1426,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,6 +1459,29 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1745,25 +1745,25 @@
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -1771,25 +1771,25 @@
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>188</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -1797,25 +1797,25 @@
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -1823,25 +1823,25 @@
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>190</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
@@ -3267,7 +3267,7 @@
   <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3329,28 +3329,28 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="52" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="18" t="s">
@@ -3403,14 +3403,14 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="21">
         <f t="shared" ref="I3:W3" si="0">SUM(I5:I711)</f>
         <v>0</v>
@@ -3476,38 +3476,38 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="44"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>188</v>
+      <c r="A5" s="50" t="s">
+        <v>187</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
@@ -3522,10 +3522,10 @@
         <v>37</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>38</v>
@@ -3535,51 +3535,51 @@
         <v>39</v>
       </c>
       <c r="K5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="P5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="Q5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="R5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="U5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="W5" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>189</v>
+      <c r="A6" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
@@ -3588,206 +3588,206 @@
         <v>10</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="L6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="M6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="O6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="P6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="Q6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="R6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="S6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="T6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="U6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="V6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="W6" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>190</v>
+      <c r="A7" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="B7" s="22">
         <v>3</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="L7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="M7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="O7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="P7" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="Q7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="R7" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="T7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="U7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="U7" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" s="26" t="s">
+      <c r="W7" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>191</v>
+      <c r="A8" s="51" t="s">
+        <v>190</v>
       </c>
       <c r="B8" s="22">
         <v>4</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="L8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="M8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="N8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="26" t="s">
+      <c r="P8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="Q8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="R8" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="S8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="T8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="U8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="V8" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="W8" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>105</v>
       </c>
       <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
@@ -8575,7 +8575,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8590,16 +8590,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>109</v>
       </c>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
@@ -8607,184 +8607,184 @@
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>142</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
         <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
         <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
         <v>154</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
         <v>156</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9783,8 +9783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9803,31 +9803,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>117</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>118</v>
       </c>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
@@ -9852,28 +9852,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="52">
+        <v>118</v>
+      </c>
+      <c r="C2" s="42">
         <v>45925</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="42">
         <v>45937</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="H2" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9881,28 +9881,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="52">
+        <v>157</v>
+      </c>
+      <c r="C3" s="42">
         <v>45938</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="42">
         <v>45952</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="H3" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9910,28 +9910,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="52">
+        <v>158</v>
+      </c>
+      <c r="C4" s="42">
         <v>45953</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="42">
         <v>45967</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="H4" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9939,28 +9939,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="42">
+        <v>45968</v>
+      </c>
+      <c r="D5" s="42">
+        <v>45985</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="52">
-        <v>45968</v>
-      </c>
-      <c r="D5" s="52">
-        <v>45985</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="H5" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
